--- a/contacts-names.xlsx
+++ b/contacts-names.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\Projects\Projects 2024\Freelance\webscrapping-4 facebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E938C36A-05B0-491A-B1DA-C8362AE3497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791EC584-DC70-49DD-91D3-88CF92E480BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Names</t>
   </si>
@@ -52,6 +52,240 @@
   </si>
   <si>
     <t>Gloria</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Vivian</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Ernest</t>
+  </si>
+  <si>
+    <t>Marian</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Gertrude</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Clarence</t>
+  </si>
+  <si>
+    <t>Mary Lou</t>
+  </si>
+  <si>
+    <t>Everett</t>
+  </si>
+  <si>
+    <t>Sadie</t>
+  </si>
+  <si>
+    <t>Eleanor</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Hazel</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Jeanette</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Beulah</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Ruthie</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Agnes</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Josie</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Mildred</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Stanley</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Lillian</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Edna</t>
   </si>
 </sst>
 </file>
@@ -378,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -431,6 +665,396 @@
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
